--- a/dados/rais.xlsx
+++ b/dados/rais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Documents\MeusProjetos\hub\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Documents\MeusProjetos\hub_pb\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E294ECCE-379A-46D9-A90A-15FD491FB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4897A1-75C6-422E-8243-8752464A526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -289,6 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,11 +630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="H261" sqref="H261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -656,7 +660,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1418</v>
       </c>
       <c r="C2">
@@ -673,7 +677,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1417</v>
       </c>
       <c r="C3">
@@ -690,7 +694,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1569</v>
       </c>
       <c r="C4">
@@ -707,7 +711,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1399</v>
       </c>
       <c r="C5">
@@ -724,7 +728,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1354</v>
       </c>
       <c r="C6">
@@ -741,7 +745,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1261</v>
       </c>
       <c r="C7">
@@ -758,7 +762,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1330</v>
       </c>
       <c r="C8">
@@ -775,7 +779,7 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1392</v>
       </c>
       <c r="C9">
@@ -792,7 +796,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1395</v>
       </c>
       <c r="C10">
@@ -809,7 +813,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1479</v>
       </c>
       <c r="C11">
@@ -826,7 +830,7 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>14389</v>
       </c>
       <c r="C12">
@@ -843,7 +847,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>14795</v>
       </c>
       <c r="C13">
@@ -860,7 +864,7 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>14822</v>
       </c>
       <c r="C14">
@@ -877,7 +881,7 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>14962</v>
       </c>
       <c r="C15">
@@ -894,7 +898,7 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>14424</v>
       </c>
       <c r="C16">
@@ -911,7 +915,7 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>14660</v>
       </c>
       <c r="C17">
@@ -928,7 +932,7 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>16096</v>
       </c>
       <c r="C18">
@@ -945,7 +949,7 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>17587</v>
       </c>
       <c r="C19">
@@ -962,7 +966,7 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>19476</v>
       </c>
       <c r="C20">
@@ -979,7 +983,7 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>22916</v>
       </c>
       <c r="C21">
@@ -996,7 +1000,7 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>2100</v>
       </c>
       <c r="C22">
@@ -1013,7 +1017,7 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>2168</v>
       </c>
       <c r="C23">
@@ -1030,7 +1034,7 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>2269</v>
       </c>
       <c r="C24">
@@ -1047,7 +1051,7 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>2211</v>
       </c>
       <c r="C25">
@@ -1064,7 +1068,7 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>2161</v>
       </c>
       <c r="C26">
@@ -1081,7 +1085,7 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>2119</v>
       </c>
       <c r="C27">
@@ -1098,7 +1102,7 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>2282</v>
       </c>
       <c r="C28">
@@ -1115,7 +1119,7 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>2233</v>
       </c>
       <c r="C29">
@@ -1132,7 +1136,7 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>2289</v>
       </c>
       <c r="C30">
@@ -1149,7 +1153,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>2556</v>
       </c>
       <c r="C31">
@@ -1166,7 +1170,7 @@
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>301</v>
       </c>
       <c r="C32">
@@ -1183,7 +1187,7 @@
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>294</v>
       </c>
       <c r="C33">
@@ -1200,7 +1204,7 @@
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>291</v>
       </c>
       <c r="C34">
@@ -1217,7 +1221,7 @@
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>303</v>
       </c>
       <c r="C35">
@@ -1234,7 +1238,7 @@
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>278</v>
       </c>
       <c r="C36">
@@ -1251,7 +1255,7 @@
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>313</v>
       </c>
       <c r="C37">
@@ -1268,7 +1272,7 @@
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>307</v>
       </c>
       <c r="C38">
@@ -1285,7 +1289,7 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>299</v>
       </c>
       <c r="C39">
@@ -1302,7 +1306,7 @@
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>273</v>
       </c>
       <c r="C40">
@@ -1319,7 +1323,7 @@
       <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>317</v>
       </c>
       <c r="C41">
@@ -1336,7 +1340,7 @@
       <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>13318</v>
       </c>
       <c r="C42">
@@ -1353,7 +1357,7 @@
       <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>20226</v>
       </c>
       <c r="C43">
@@ -1370,7 +1374,7 @@
       <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>15284</v>
       </c>
       <c r="C44">
@@ -1387,7 +1391,7 @@
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>16098</v>
       </c>
       <c r="C45">
@@ -1404,7 +1408,7 @@
       <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>15827</v>
       </c>
       <c r="C46">
@@ -1421,7 +1425,7 @@
       <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>16015</v>
       </c>
       <c r="C47">
@@ -1438,7 +1442,7 @@
       <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>17069</v>
       </c>
       <c r="C48">
@@ -1455,7 +1459,7 @@
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>17166</v>
       </c>
       <c r="C49">
@@ -1472,7 +1476,7 @@
       <c r="A50" t="s">
         <v>8</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>17626</v>
       </c>
       <c r="C50">
@@ -1489,7 +1493,7 @@
       <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>19543</v>
       </c>
       <c r="C51">
@@ -1506,7 +1510,7 @@
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>1900</v>
       </c>
       <c r="C52">
@@ -1523,7 +1527,7 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>2064</v>
       </c>
       <c r="C53">
@@ -1540,7 +1544,7 @@
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>2159</v>
       </c>
       <c r="C54">
@@ -1557,7 +1561,7 @@
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>2025</v>
       </c>
       <c r="C55">
@@ -1574,7 +1578,7 @@
       <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>2165</v>
       </c>
       <c r="C56">
@@ -1591,7 +1595,7 @@
       <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>2258</v>
       </c>
       <c r="C57">
@@ -1608,7 +1612,7 @@
       <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>2308</v>
       </c>
       <c r="C58">
@@ -1625,7 +1629,7 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>2656</v>
       </c>
       <c r="C59">
@@ -1642,7 +1646,7 @@
       <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>2497</v>
       </c>
       <c r="C60">
@@ -1659,7 +1663,7 @@
       <c r="A61" t="s">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>2869</v>
       </c>
       <c r="C61">
@@ -1676,7 +1680,7 @@
       <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>1925</v>
       </c>
       <c r="C62">
@@ -1693,7 +1697,7 @@
       <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>2137</v>
       </c>
       <c r="C63">
@@ -1710,7 +1714,7 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>2269</v>
       </c>
       <c r="C64">
@@ -1727,7 +1731,7 @@
       <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>2298</v>
       </c>
       <c r="C65">
@@ -1744,7 +1748,7 @@
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>2324</v>
       </c>
       <c r="C66">
@@ -1761,7 +1765,7 @@
       <c r="A67" t="s">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>2168</v>
       </c>
       <c r="C67">
@@ -1778,7 +1782,7 @@
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>2155</v>
       </c>
       <c r="C68">
@@ -1795,7 +1799,7 @@
       <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>2189</v>
       </c>
       <c r="C69">
@@ -1812,7 +1816,7 @@
       <c r="A70" t="s">
         <v>10</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>2236</v>
       </c>
       <c r="C70">
@@ -1829,7 +1833,7 @@
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>2429</v>
       </c>
       <c r="C71">
@@ -1846,7 +1850,7 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>11821</v>
       </c>
       <c r="C72">
@@ -1863,7 +1867,7 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>11810</v>
       </c>
       <c r="C73">
@@ -1880,7 +1884,7 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>13519</v>
       </c>
       <c r="C74">
@@ -1897,7 +1901,7 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>13004</v>
       </c>
       <c r="C75">
@@ -1914,7 +1918,7 @@
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>13015</v>
       </c>
       <c r="C76">
@@ -1931,7 +1935,7 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>13520</v>
       </c>
       <c r="C77">
@@ -1948,7 +1952,7 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>14333</v>
       </c>
       <c r="C78">
@@ -1965,7 +1969,7 @@
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>15387</v>
       </c>
       <c r="C79">
@@ -1982,7 +1986,7 @@
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>16088</v>
       </c>
       <c r="C80">
@@ -1999,7 +2003,7 @@
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>17206</v>
       </c>
       <c r="C81">
@@ -2016,7 +2020,7 @@
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>4490</v>
       </c>
       <c r="C82">
@@ -2033,7 +2037,7 @@
       <c r="A83" t="s">
         <v>12</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>5114</v>
       </c>
       <c r="C83">
@@ -2050,7 +2054,7 @@
       <c r="A84" t="s">
         <v>12</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>5581</v>
       </c>
       <c r="C84">
@@ -2067,7 +2071,7 @@
       <c r="A85" t="s">
         <v>12</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>5386</v>
       </c>
       <c r="C85">
@@ -2084,7 +2088,7 @@
       <c r="A86" t="s">
         <v>12</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>5531</v>
       </c>
       <c r="C86">
@@ -2101,7 +2105,7 @@
       <c r="A87" t="s">
         <v>12</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>5757</v>
       </c>
       <c r="C87">
@@ -2118,7 +2122,7 @@
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>6351</v>
       </c>
       <c r="C88">
@@ -2135,7 +2139,7 @@
       <c r="A89" t="s">
         <v>12</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>6577</v>
       </c>
       <c r="C89">
@@ -2152,7 +2156,7 @@
       <c r="A90" t="s">
         <v>12</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>6554</v>
       </c>
       <c r="C90">
@@ -2169,7 +2173,7 @@
       <c r="A91" t="s">
         <v>12</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>7441</v>
       </c>
       <c r="C91">
@@ -2186,7 +2190,7 @@
       <c r="A92" t="s">
         <v>13</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>5528</v>
       </c>
       <c r="C92">
@@ -2203,7 +2207,7 @@
       <c r="A93" t="s">
         <v>13</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>5973</v>
       </c>
       <c r="C93">
@@ -2220,7 +2224,7 @@
       <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>6635</v>
       </c>
       <c r="C94">
@@ -2237,7 +2241,7 @@
       <c r="A95" t="s">
         <v>13</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>6928</v>
       </c>
       <c r="C95">
@@ -2254,7 +2258,7 @@
       <c r="A96" t="s">
         <v>13</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>7013</v>
       </c>
       <c r="C96">
@@ -2271,7 +2275,7 @@
       <c r="A97" t="s">
         <v>13</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>7004</v>
       </c>
       <c r="C97">
@@ -2288,7 +2292,7 @@
       <c r="A98" t="s">
         <v>13</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>7607</v>
       </c>
       <c r="C98">
@@ -2305,7 +2309,7 @@
       <c r="A99" t="s">
         <v>13</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>7910</v>
       </c>
       <c r="C99">
@@ -2322,7 +2326,7 @@
       <c r="A100" t="s">
         <v>13</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>8082</v>
       </c>
       <c r="C100">
@@ -2339,7 +2343,7 @@
       <c r="A101" t="s">
         <v>13</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>8891</v>
       </c>
       <c r="C101">
@@ -2356,7 +2360,7 @@
       <c r="A102" t="s">
         <v>14</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>3259</v>
       </c>
       <c r="C102">
@@ -2373,7 +2377,7 @@
       <c r="A103" t="s">
         <v>14</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>3572</v>
       </c>
       <c r="C103">
@@ -2390,7 +2394,7 @@
       <c r="A104" t="s">
         <v>14</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>3825</v>
       </c>
       <c r="C104">
@@ -2407,7 +2411,7 @@
       <c r="A105" t="s">
         <v>14</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>3734</v>
       </c>
       <c r="C105">
@@ -2424,7 +2428,7 @@
       <c r="A106" t="s">
         <v>14</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>3759</v>
       </c>
       <c r="C106">
@@ -2441,7 +2445,7 @@
       <c r="A107" t="s">
         <v>14</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>3787</v>
       </c>
       <c r="C107">
@@ -2458,7 +2462,7 @@
       <c r="A108" t="s">
         <v>14</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>3714</v>
       </c>
       <c r="C108">
@@ -2475,7 +2479,7 @@
       <c r="A109" t="s">
         <v>14</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>3804</v>
       </c>
       <c r="C109">
@@ -2492,7 +2496,7 @@
       <c r="A110" t="s">
         <v>14</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>3887</v>
       </c>
       <c r="C110">
@@ -2509,7 +2513,7 @@
       <c r="A111" t="s">
         <v>14</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>4581</v>
       </c>
       <c r="C111">
@@ -2526,7 +2530,7 @@
       <c r="A112" t="s">
         <v>15</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>1360</v>
       </c>
       <c r="C112">
@@ -2543,7 +2547,7 @@
       <c r="A113" t="s">
         <v>15</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>1510</v>
       </c>
       <c r="C113">
@@ -2560,7 +2564,7 @@
       <c r="A114" t="s">
         <v>15</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>1673</v>
       </c>
       <c r="C114">
@@ -2577,7 +2581,7 @@
       <c r="A115" t="s">
         <v>15</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>1643</v>
       </c>
       <c r="C115">
@@ -2594,7 +2598,7 @@
       <c r="A116" t="s">
         <v>15</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>1664</v>
       </c>
       <c r="C116">
@@ -2611,7 +2615,7 @@
       <c r="A117" t="s">
         <v>15</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>1713</v>
       </c>
       <c r="C117">
@@ -2628,7 +2632,7 @@
       <c r="A118" t="s">
         <v>15</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>1789</v>
       </c>
       <c r="C118">
@@ -2645,7 +2649,7 @@
       <c r="A119" t="s">
         <v>15</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>1994</v>
       </c>
       <c r="C119">
@@ -2662,7 +2666,7 @@
       <c r="A120" t="s">
         <v>15</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>2243</v>
       </c>
       <c r="C120">
@@ -2679,7 +2683,7 @@
       <c r="A121" t="s">
         <v>15</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>2568</v>
       </c>
       <c r="C121">
@@ -2696,7 +2700,7 @@
       <c r="A122" t="s">
         <v>16</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>395</v>
       </c>
       <c r="C122">
@@ -2713,7 +2717,7 @@
       <c r="A123" t="s">
         <v>16</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>405</v>
       </c>
       <c r="C123">
@@ -2730,7 +2734,7 @@
       <c r="A124" t="s">
         <v>16</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>331</v>
       </c>
       <c r="C124">
@@ -2747,7 +2751,7 @@
       <c r="A125" t="s">
         <v>16</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>325</v>
       </c>
       <c r="C125">
@@ -2764,7 +2768,7 @@
       <c r="A126" t="s">
         <v>16</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>342</v>
       </c>
       <c r="C126">
@@ -2781,7 +2785,7 @@
       <c r="A127" t="s">
         <v>16</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>383</v>
       </c>
       <c r="C127">
@@ -2798,7 +2802,7 @@
       <c r="A128" t="s">
         <v>16</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>352</v>
       </c>
       <c r="C128">
@@ -2815,7 +2819,7 @@
       <c r="A129" t="s">
         <v>16</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>399</v>
       </c>
       <c r="C129">
@@ -2832,7 +2836,7 @@
       <c r="A130" t="s">
         <v>16</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>411</v>
       </c>
       <c r="C130">
@@ -2849,7 +2853,7 @@
       <c r="A131" t="s">
         <v>16</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>395</v>
       </c>
       <c r="C131">
@@ -2866,7 +2870,7 @@
       <c r="A132" t="s">
         <v>17</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>1024</v>
       </c>
       <c r="C132">
@@ -2883,7 +2887,7 @@
       <c r="A133" t="s">
         <v>17</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>1033</v>
       </c>
       <c r="C133">
@@ -2900,7 +2904,7 @@
       <c r="A134" t="s">
         <v>17</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>1053</v>
       </c>
       <c r="C134">
@@ -2917,7 +2921,7 @@
       <c r="A135" t="s">
         <v>17</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>1162</v>
       </c>
       <c r="C135">
@@ -2934,7 +2938,7 @@
       <c r="A136" t="s">
         <v>17</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>1103</v>
       </c>
       <c r="C136">
@@ -2951,7 +2955,7 @@
       <c r="A137" t="s">
         <v>17</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>1252</v>
       </c>
       <c r="C137">
@@ -2968,7 +2972,7 @@
       <c r="A138" t="s">
         <v>17</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>1524</v>
       </c>
       <c r="C138">
@@ -2985,7 +2989,7 @@
       <c r="A139" t="s">
         <v>17</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>1573</v>
       </c>
       <c r="C139">
@@ -3002,7 +3006,7 @@
       <c r="A140" t="s">
         <v>17</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>1497</v>
       </c>
       <c r="C140">
@@ -3019,7 +3023,7 @@
       <c r="A141" t="s">
         <v>17</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>1548</v>
       </c>
       <c r="C141">
@@ -3036,7 +3040,7 @@
       <c r="A142" t="s">
         <v>18</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>2826</v>
       </c>
       <c r="C142">
@@ -3053,7 +3057,7 @@
       <c r="A143" t="s">
         <v>18</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>2994</v>
       </c>
       <c r="C143">
@@ -3070,7 +3074,7 @@
       <c r="A144" t="s">
         <v>18</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>3141</v>
       </c>
       <c r="C144">
@@ -3087,7 +3091,7 @@
       <c r="A145" t="s">
         <v>18</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>3171</v>
       </c>
       <c r="C145">
@@ -3104,7 +3108,7 @@
       <c r="A146" t="s">
         <v>18</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>3000</v>
       </c>
       <c r="C146">
@@ -3121,7 +3125,7 @@
       <c r="A147" t="s">
         <v>18</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>3192</v>
       </c>
       <c r="C147">
@@ -3138,7 +3142,7 @@
       <c r="A148" t="s">
         <v>18</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>3457</v>
       </c>
       <c r="C148">
@@ -3155,7 +3159,7 @@
       <c r="A149" t="s">
         <v>18</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>3713</v>
       </c>
       <c r="C149">
@@ -3172,7 +3176,7 @@
       <c r="A150" t="s">
         <v>18</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>4212</v>
       </c>
       <c r="C150">
@@ -3189,7 +3193,7 @@
       <c r="A151" t="s">
         <v>18</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>4739</v>
       </c>
       <c r="C151">
@@ -3206,7 +3210,7 @@
       <c r="A152" t="s">
         <v>19</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>1302</v>
       </c>
       <c r="C152">
@@ -3223,7 +3227,7 @@
       <c r="A153" t="s">
         <v>19</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>1476</v>
       </c>
       <c r="C153">
@@ -3240,7 +3244,7 @@
       <c r="A154" t="s">
         <v>19</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>1614</v>
       </c>
       <c r="C154">
@@ -3257,7 +3261,7 @@
       <c r="A155" t="s">
         <v>19</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>1651</v>
       </c>
       <c r="C155">
@@ -3274,7 +3278,7 @@
       <c r="A156" t="s">
         <v>19</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>1749</v>
       </c>
       <c r="C156">
@@ -3291,7 +3295,7 @@
       <c r="A157" t="s">
         <v>19</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>1840</v>
       </c>
       <c r="C157">
@@ -3308,7 +3312,7 @@
       <c r="A158" t="s">
         <v>19</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>1929</v>
       </c>
       <c r="C158">
@@ -3325,7 +3329,7 @@
       <c r="A159" t="s">
         <v>19</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>1907</v>
       </c>
       <c r="C159">
@@ -3342,7 +3346,7 @@
       <c r="A160" t="s">
         <v>19</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>1857</v>
       </c>
       <c r="C160">
@@ -3359,7 +3363,7 @@
       <c r="A161" t="s">
         <v>19</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>2097</v>
       </c>
       <c r="C161">
@@ -3376,7 +3380,7 @@
       <c r="A162" t="s">
         <v>20</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>498</v>
       </c>
       <c r="C162">
@@ -3393,7 +3397,7 @@
       <c r="A163" t="s">
         <v>20</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>771</v>
       </c>
       <c r="C163">
@@ -3410,7 +3414,7 @@
       <c r="A164" t="s">
         <v>20</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>684</v>
       </c>
       <c r="C164">
@@ -3427,7 +3431,7 @@
       <c r="A165" t="s">
         <v>20</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>750</v>
       </c>
       <c r="C165">
@@ -3444,7 +3448,7 @@
       <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>727</v>
       </c>
       <c r="C166">
@@ -3461,7 +3465,7 @@
       <c r="A167" t="s">
         <v>20</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>678</v>
       </c>
       <c r="C167">
@@ -3478,7 +3482,7 @@
       <c r="A168" t="s">
         <v>20</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>709</v>
       </c>
       <c r="C168">
@@ -3495,7 +3499,7 @@
       <c r="A169" t="s">
         <v>20</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>742</v>
       </c>
       <c r="C169">
@@ -3512,7 +3516,7 @@
       <c r="A170" t="s">
         <v>20</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>698</v>
       </c>
       <c r="C170">
@@ -3529,7 +3533,7 @@
       <c r="A171" t="s">
         <v>20</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>678</v>
       </c>
       <c r="C171">
@@ -3546,7 +3550,7 @@
       <c r="A172" t="s">
         <v>21</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>9015</v>
       </c>
       <c r="C172">
@@ -3563,7 +3567,7 @@
       <c r="A173" t="s">
         <v>21</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>9994</v>
       </c>
       <c r="C173">
@@ -3580,7 +3584,7 @@
       <c r="A174" t="s">
         <v>21</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>11403</v>
       </c>
       <c r="C174">
@@ -3597,7 +3601,7 @@
       <c r="A175" t="s">
         <v>21</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>12222</v>
       </c>
       <c r="C175">
@@ -3614,7 +3618,7 @@
       <c r="A176" t="s">
         <v>21</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>12053</v>
       </c>
       <c r="C176">
@@ -3631,7 +3635,7 @@
       <c r="A177" t="s">
         <v>21</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>11650</v>
       </c>
       <c r="C177">
@@ -3648,7 +3652,7 @@
       <c r="A178" t="s">
         <v>21</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>12267</v>
       </c>
       <c r="C178">
@@ -3665,7 +3669,7 @@
       <c r="A179" t="s">
         <v>21</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>13008</v>
       </c>
       <c r="C179">
@@ -3682,7 +3686,7 @@
       <c r="A180" t="s">
         <v>21</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>14346</v>
       </c>
       <c r="C180">
@@ -3699,7 +3703,7 @@
       <c r="A181" t="s">
         <v>21</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>16763</v>
       </c>
       <c r="C181">
@@ -3716,7 +3720,7 @@
       <c r="A182" t="s">
         <v>22</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>429</v>
       </c>
       <c r="C182">
@@ -3733,7 +3737,7 @@
       <c r="A183" t="s">
         <v>22</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>464</v>
       </c>
       <c r="C183">
@@ -3750,7 +3754,7 @@
       <c r="A184" t="s">
         <v>22</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>523</v>
       </c>
       <c r="C184">
@@ -3767,7 +3771,7 @@
       <c r="A185" t="s">
         <v>22</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>500</v>
       </c>
       <c r="C185">
@@ -3784,7 +3788,7 @@
       <c r="A186" t="s">
         <v>22</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>572</v>
       </c>
       <c r="C186">
@@ -3801,7 +3805,7 @@
       <c r="A187" t="s">
         <v>22</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>591</v>
       </c>
       <c r="C187">
@@ -3818,7 +3822,7 @@
       <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>44650</v>
       </c>
       <c r="C188">
@@ -3835,7 +3839,7 @@
       <c r="A189" t="s">
         <v>22</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>41942</v>
       </c>
       <c r="C189">
@@ -3852,7 +3856,7 @@
       <c r="A190" t="s">
         <v>22</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>43905</v>
       </c>
       <c r="C190">
@@ -3869,7 +3873,7 @@
       <c r="A191" t="s">
         <v>22</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>583</v>
       </c>
       <c r="C191">
@@ -3886,7 +3890,7 @@
       <c r="A192" t="s">
         <v>23</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>6334</v>
       </c>
       <c r="C192">
@@ -3903,7 +3907,7 @@
       <c r="A193" t="s">
         <v>23</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <v>7160</v>
       </c>
       <c r="C193">
@@ -3920,7 +3924,7 @@
       <c r="A194" t="s">
         <v>23</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>7260</v>
       </c>
       <c r="C194">
@@ -3937,7 +3941,7 @@
       <c r="A195" t="s">
         <v>23</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <v>7126</v>
       </c>
       <c r="C195">
@@ -3954,7 +3958,7 @@
       <c r="A196" t="s">
         <v>23</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <v>6287</v>
       </c>
       <c r="C196">
@@ -3971,7 +3975,7 @@
       <c r="A197" t="s">
         <v>23</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <v>6661</v>
       </c>
       <c r="C197">
@@ -3988,7 +3992,7 @@
       <c r="A198" t="s">
         <v>23</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <v>6942</v>
       </c>
       <c r="C198">
@@ -4005,7 +4009,7 @@
       <c r="A199" t="s">
         <v>23</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <v>7135</v>
       </c>
       <c r="C199">
@@ -4022,7 +4026,7 @@
       <c r="A200" t="s">
         <v>23</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <v>7902</v>
       </c>
       <c r="C200">
@@ -4039,7 +4043,7 @@
       <c r="A201" t="s">
         <v>23</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <v>8921</v>
       </c>
       <c r="C201">
@@ -4056,7 +4060,7 @@
       <c r="A202" t="s">
         <v>24</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>225</v>
       </c>
       <c r="C202">
@@ -4073,7 +4077,7 @@
       <c r="A203" t="s">
         <v>24</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <v>231</v>
       </c>
       <c r="C203">
@@ -4090,7 +4094,7 @@
       <c r="A204" t="s">
         <v>24</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <v>236</v>
       </c>
       <c r="C204">
@@ -4107,7 +4111,7 @@
       <c r="A205" t="s">
         <v>24</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>263</v>
       </c>
       <c r="C205">
@@ -4124,7 +4128,7 @@
       <c r="A206" t="s">
         <v>24</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>256</v>
       </c>
       <c r="C206">
@@ -4141,7 +4145,7 @@
       <c r="A207" t="s">
         <v>24</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <v>281</v>
       </c>
       <c r="C207">
@@ -4158,7 +4162,7 @@
       <c r="A208" t="s">
         <v>24</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <v>289</v>
       </c>
       <c r="C208">
@@ -4175,7 +4179,7 @@
       <c r="A209" t="s">
         <v>24</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <v>283</v>
       </c>
       <c r="C209">
@@ -4192,7 +4196,7 @@
       <c r="A210" t="s">
         <v>24</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <v>312</v>
       </c>
       <c r="C210">
@@ -4209,7 +4213,7 @@
       <c r="A211" t="s">
         <v>24</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <v>295</v>
       </c>
       <c r="C211">
@@ -4226,7 +4230,7 @@
       <c r="A212" t="s">
         <v>25</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <v>30146</v>
       </c>
       <c r="C212">
@@ -4243,7 +4247,7 @@
       <c r="A213" t="s">
         <v>25</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>33454</v>
       </c>
       <c r="C213">
@@ -4260,7 +4264,7 @@
       <c r="A214" t="s">
         <v>25</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <v>33646</v>
       </c>
       <c r="C214">
@@ -4277,7 +4281,7 @@
       <c r="A215" t="s">
         <v>25</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <v>33150</v>
       </c>
       <c r="C215">
@@ -4294,7 +4298,7 @@
       <c r="A216" t="s">
         <v>25</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <v>31142</v>
       </c>
       <c r="C216">
@@ -4311,7 +4315,7 @@
       <c r="A217" t="s">
         <v>25</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <v>30694</v>
       </c>
       <c r="C217">
@@ -4328,7 +4332,7 @@
       <c r="A218" t="s">
         <v>25</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <v>32316</v>
       </c>
       <c r="C218">
@@ -4345,7 +4349,7 @@
       <c r="A219" t="s">
         <v>25</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <v>31963</v>
       </c>
       <c r="C219">
@@ -4362,7 +4366,7 @@
       <c r="A220" t="s">
         <v>25</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>32833</v>
       </c>
       <c r="C220">
@@ -4379,7 +4383,7 @@
       <c r="A221" t="s">
         <v>25</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <v>34838</v>
       </c>
       <c r="C221">
@@ -4396,7 +4400,7 @@
       <c r="A222" t="s">
         <v>26</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <v>5899</v>
       </c>
       <c r="C222">
@@ -4413,7 +4417,7 @@
       <c r="A223" t="s">
         <v>26</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <v>5803</v>
       </c>
       <c r="C223">
@@ -4430,7 +4434,7 @@
       <c r="A224" t="s">
         <v>26</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <v>6027</v>
       </c>
       <c r="C224">
@@ -4447,7 +4451,7 @@
       <c r="A225" t="s">
         <v>26</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <v>6094</v>
       </c>
       <c r="C225">
@@ -4464,7 +4468,7 @@
       <c r="A226" t="s">
         <v>26</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <v>5708</v>
       </c>
       <c r="C226">
@@ -4481,7 +4485,7 @@
       <c r="A227" t="s">
         <v>26</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>6211</v>
       </c>
       <c r="C227">
@@ -4498,7 +4502,7 @@
       <c r="A228" t="s">
         <v>26</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <v>6775</v>
       </c>
       <c r="C228">
@@ -4515,7 +4519,7 @@
       <c r="A229" t="s">
         <v>26</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <v>6337</v>
       </c>
       <c r="C229">
@@ -4532,7 +4536,7 @@
       <c r="A230" t="s">
         <v>26</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <v>6224</v>
       </c>
       <c r="C230">
@@ -4549,7 +4553,7 @@
       <c r="A231" t="s">
         <v>26</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="3">
         <v>6537</v>
       </c>
       <c r="C231">
@@ -4566,7 +4570,7 @@
       <c r="A232" t="s">
         <v>27</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <v>1372</v>
       </c>
       <c r="C232">
@@ -4583,7 +4587,7 @@
       <c r="A233" t="s">
         <v>27</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="3">
         <v>1454</v>
       </c>
       <c r="C233">
@@ -4600,7 +4604,7 @@
       <c r="A234" t="s">
         <v>27</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <v>1267</v>
       </c>
       <c r="C234">
@@ -4617,7 +4621,7 @@
       <c r="A235" t="s">
         <v>27</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <v>1305</v>
       </c>
       <c r="C235">
@@ -4634,7 +4638,7 @@
       <c r="A236" t="s">
         <v>27</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <v>1279</v>
       </c>
       <c r="C236">
@@ -4651,7 +4655,7 @@
       <c r="A237" t="s">
         <v>27</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <v>1228</v>
       </c>
       <c r="C237">
@@ -4668,7 +4672,7 @@
       <c r="A238" t="s">
         <v>27</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <v>1342</v>
       </c>
       <c r="C238">
@@ -4685,7 +4689,7 @@
       <c r="A239" t="s">
         <v>27</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="3">
         <v>1339</v>
       </c>
       <c r="C239">
@@ -4702,7 +4706,7 @@
       <c r="A240" t="s">
         <v>27</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="3">
         <v>1412</v>
       </c>
       <c r="C240">
@@ -4719,7 +4723,7 @@
       <c r="A241" t="s">
         <v>27</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <v>1467</v>
       </c>
       <c r="C241">
@@ -4736,7 +4740,7 @@
       <c r="A242" t="s">
         <v>28</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="3">
         <v>76956</v>
       </c>
       <c r="C242">
@@ -4753,7 +4757,7 @@
       <c r="A243" t="s">
         <v>28</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="3">
         <v>75815</v>
       </c>
       <c r="C243">
@@ -4770,7 +4774,7 @@
       <c r="A244" t="s">
         <v>28</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="3">
         <v>82626</v>
       </c>
       <c r="C244">
@@ -4787,7 +4791,7 @@
       <c r="A245" t="s">
         <v>28</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="3">
         <v>81324</v>
       </c>
       <c r="C245">
@@ -4804,7 +4808,7 @@
       <c r="A246" t="s">
         <v>28</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="3">
         <v>79847</v>
       </c>
       <c r="C246">
@@ -4821,7 +4825,7 @@
       <c r="A247" t="s">
         <v>28</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="3">
         <v>84481</v>
       </c>
       <c r="C247">
@@ -4838,7 +4842,7 @@
       <c r="A248" t="s">
         <v>28</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="3">
         <v>93661</v>
       </c>
       <c r="C248">
@@ -4855,7 +4859,7 @@
       <c r="A249" t="s">
         <v>28</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="3">
         <v>101349</v>
       </c>
       <c r="C249">
@@ -4872,7 +4876,7 @@
       <c r="A250" t="s">
         <v>28</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="3">
         <v>104865</v>
       </c>
       <c r="C250">
@@ -4889,7 +4893,7 @@
       <c r="A251" t="s">
         <v>28</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="3">
         <v>135764</v>
       </c>
       <c r="C251">
@@ -4906,7 +4910,7 @@
       <c r="A252" t="s">
         <v>63</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="3">
         <v>893</v>
       </c>
       <c r="C252">
@@ -4923,7 +4927,7 @@
       <c r="A253" t="s">
         <v>63</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="3">
         <v>915</v>
       </c>
       <c r="C253">
@@ -4940,7 +4944,7 @@
       <c r="A254" t="s">
         <v>63</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="3">
         <v>1003</v>
       </c>
       <c r="C254">
@@ -4957,7 +4961,7 @@
       <c r="A255" t="s">
         <v>63</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="3">
         <v>1035</v>
       </c>
       <c r="C255">
@@ -4974,7 +4978,7 @@
       <c r="A256" t="s">
         <v>63</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="3">
         <v>1079</v>
       </c>
       <c r="C256">
@@ -4991,7 +4995,7 @@
       <c r="A257" t="s">
         <v>63</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="3">
         <v>1129</v>
       </c>
       <c r="C257">
@@ -5008,7 +5012,7 @@
       <c r="A258" t="s">
         <v>63</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="3">
         <v>1155</v>
       </c>
       <c r="C258">
@@ -5025,7 +5029,7 @@
       <c r="A259" t="s">
         <v>63</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="3">
         <v>1182</v>
       </c>
       <c r="C259">
@@ -5042,7 +5046,7 @@
       <c r="A260" t="s">
         <v>63</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="3">
         <v>1178</v>
       </c>
       <c r="C260">
@@ -5059,7 +5063,7 @@
       <c r="A261" t="s">
         <v>63</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="3">
         <v>1137</v>
       </c>
       <c r="C261">
@@ -5076,7 +5080,7 @@
       <c r="A262" t="s">
         <v>29</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="3">
         <v>3492</v>
       </c>
       <c r="C262">
@@ -5093,7 +5097,7 @@
       <c r="A263" t="s">
         <v>29</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="3">
         <v>3433</v>
       </c>
       <c r="C263">
@@ -5110,7 +5114,7 @@
       <c r="A264" t="s">
         <v>29</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="3">
         <v>3445</v>
       </c>
       <c r="C264">
@@ -5127,7 +5131,7 @@
       <c r="A265" t="s">
         <v>29</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="3">
         <v>3175</v>
       </c>
       <c r="C265">
@@ -5144,7 +5148,7 @@
       <c r="A266" t="s">
         <v>29</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="3">
         <v>3278</v>
       </c>
       <c r="C266">
@@ -5161,7 +5165,7 @@
       <c r="A267" t="s">
         <v>29</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="3">
         <v>3266</v>
       </c>
       <c r="C267">
@@ -5178,7 +5182,7 @@
       <c r="A268" t="s">
         <v>29</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="3">
         <v>3184</v>
       </c>
       <c r="C268">
@@ -5195,7 +5199,7 @@
       <c r="A269" t="s">
         <v>29</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="3">
         <v>3640</v>
       </c>
       <c r="C269">
@@ -5212,7 +5216,7 @@
       <c r="A270" t="s">
         <v>29</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="3">
         <v>3998</v>
       </c>
       <c r="C270">
@@ -5229,7 +5233,7 @@
       <c r="A271" t="s">
         <v>29</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="3">
         <v>4476</v>
       </c>
       <c r="C271">
